--- a/PCS_analysis.xlsx
+++ b/PCS_analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\PCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDA7A4B-AF1A-4AC1-B06D-A00711D8A47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E93E785-E0DD-4506-B829-4CAFE5D26FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Real part</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,14 @@
   </si>
   <si>
     <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EE11AD-4751-4957-A53D-660D2B6D5C19}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:R2"/>
     </sheetView>
   </sheetViews>
@@ -497,40 +506,40 @@
         <v>-15.89</v>
       </c>
       <c r="G1">
-        <v>-194.74</v>
+        <v>-179.74</v>
       </c>
       <c r="H1">
-        <v>-194.74</v>
+        <v>-179.74</v>
       </c>
       <c r="I1">
-        <v>-178.49</v>
+        <v>-165.53</v>
       </c>
       <c r="J1">
-        <v>-178.49</v>
+        <v>-165.53</v>
       </c>
       <c r="K1">
-        <v>-323.7</v>
+        <v>-344.08</v>
       </c>
       <c r="L1">
-        <v>-323.7</v>
+        <v>-344.08</v>
       </c>
       <c r="M1">
-        <v>-314.45</v>
+        <v>-325.55</v>
       </c>
       <c r="N1">
-        <v>-314.45</v>
+        <v>-325.55</v>
       </c>
       <c r="O1">
-        <v>-8.77</v>
+        <v>-16.329999999999998</v>
       </c>
       <c r="P1">
-        <v>-8.77</v>
+        <v>-16.329999999999998</v>
       </c>
       <c r="Q1">
-        <v>-4.8600000000000003</v>
+        <v>-3.77</v>
       </c>
       <c r="R1">
-        <v>-4.8600000000000003</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -550,40 +559,40 @@
         <v>-12.24</v>
       </c>
       <c r="G2">
-        <v>1728.27</v>
+        <v>1803.4</v>
       </c>
       <c r="H2">
-        <v>-1728.27</v>
+        <v>-1803.4</v>
       </c>
       <c r="I2">
-        <v>1630.07</v>
+        <v>1705.36</v>
       </c>
       <c r="J2">
-        <v>-1630.07</v>
+        <v>-1705.36</v>
       </c>
       <c r="K2">
-        <v>244.05</v>
+        <v>240.83</v>
       </c>
       <c r="L2">
-        <v>-244.05</v>
+        <v>-240.83</v>
       </c>
       <c r="M2">
-        <v>235.28</v>
+        <v>226.63</v>
       </c>
       <c r="N2">
-        <v>-235.28</v>
+        <v>-226.63</v>
       </c>
       <c r="O2">
-        <v>42.06</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="P2">
-        <v>-42.06</v>
+        <v>-36.020000000000003</v>
       </c>
       <c r="Q2">
-        <v>7.55</v>
+        <v>11.47</v>
       </c>
       <c r="R2">
-        <v>-7.55</v>
+        <v>-11.47</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -815,40 +824,40 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1.145E-2</v>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>1.145E-2</v>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="J7" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>0.33611999999999997</v>
+        <v>0.29782999999999998</v>
       </c>
       <c r="L7" s="1">
-        <v>0.33611999999999997</v>
+        <v>0.29782999999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>0.36085</v>
+        <v>0.33334999999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>0.36085</v>
+        <v>0.33334999999999998</v>
       </c>
       <c r="O7">
-        <v>7.5240000000000001E-2</v>
+        <v>0.13866000000000001</v>
       </c>
       <c r="P7">
-        <v>7.5240000000000001E-2</v>
+        <v>0.13866000000000001</v>
       </c>
       <c r="Q7">
-        <v>3.5200000000000001E-3</v>
+        <v>2.0080000000000001E-2</v>
       </c>
       <c r="R7">
-        <v>3.5200000000000001E-3</v>
+        <v>2.0080000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -868,40 +877,40 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1.145E-2</v>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="H8" s="1">
-        <v>1.145E-2</v>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>0.33609</v>
+        <v>0.29780000000000001</v>
       </c>
       <c r="L8" s="1">
-        <v>0.33609</v>
+        <v>0.29780000000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>0.36087999999999998</v>
+        <v>0.33339000000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>0.36087999999999998</v>
+        <v>0.33339000000000002</v>
       </c>
       <c r="O8">
-        <v>7.5249999999999997E-2</v>
+        <v>0.13877999999999999</v>
       </c>
       <c r="P8">
-        <v>7.5249999999999997E-2</v>
+        <v>0.13877999999999999</v>
       </c>
       <c r="Q8">
-        <v>3.7299999999999998E-3</v>
+        <v>2.0119999999999999E-2</v>
       </c>
       <c r="R8">
-        <v>3.7299999999999998E-3</v>
+        <v>2.0119999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -921,40 +930,40 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>5.6099999999999997E-2</v>
+        <v>4.9029999999999997E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>5.6099999999999997E-2</v>
+        <v>4.9029999999999997E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>5.4390000000000001E-2</v>
+        <v>4.7649999999999998E-2</v>
       </c>
       <c r="J9" s="1">
-        <v>5.4390000000000001E-2</v>
+        <v>4.7649999999999998E-2</v>
       </c>
       <c r="K9" s="1">
-        <v>0.41969000000000001</v>
+        <v>0.43975999999999998</v>
       </c>
       <c r="L9" s="1">
-        <v>0.41969000000000001</v>
+        <v>0.43975999999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>0.41524</v>
+        <v>0.43029000000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>0.41524</v>
+        <v>0.43029000000000001</v>
       </c>
       <c r="O9">
-        <v>9.7999999999999997E-4</v>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="P9">
-        <v>9.7999999999999997E-4</v>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -974,40 +983,40 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>5.6099999999999997E-2</v>
+        <v>4.9029999999999997E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>5.6099999999999997E-2</v>
+        <v>4.9029999999999997E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>5.4390000000000001E-2</v>
+        <v>4.7649999999999998E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>5.4390000000000001E-2</v>
+        <v>4.7649999999999998E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>0.41965999999999998</v>
+        <v>0.43973000000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0.41965999999999998</v>
+        <v>0.43973000000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>0.41526999999999997</v>
+        <v>0.43032999999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>0.41526999999999997</v>
+        <v>0.43032999999999999</v>
       </c>
       <c r="O10">
-        <v>1.01E-3</v>
+        <v>1.67E-3</v>
       </c>
       <c r="P10">
-        <v>1.01E-3</v>
+        <v>1.67E-3</v>
       </c>
       <c r="Q10">
-        <v>4.0000000000000003E-5</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="R10">
-        <v>4.0000000000000003E-5</v>
+        <v>1.2999999999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -1027,40 +1036,40 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.25927</v>
+        <v>0.23588999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>0.25927</v>
+        <v>0.23588999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>0.26240999999999998</v>
+        <v>0.23832999999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.26240999999999998</v>
+        <v>0.23832999999999999</v>
       </c>
       <c r="K11" s="1">
-        <v>9.7989999999999994E-2</v>
+        <v>0.15562999999999999</v>
       </c>
       <c r="L11" s="1">
-        <v>9.7989999999999994E-2</v>
+        <v>0.15562999999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>8.2780000000000006E-2</v>
+        <v>0.13471</v>
       </c>
       <c r="N11" s="1">
-        <v>8.2780000000000006E-2</v>
+        <v>0.13471</v>
       </c>
       <c r="O11">
-        <v>1.2659999999999999E-2</v>
+        <v>2.137E-2</v>
       </c>
       <c r="P11">
-        <v>1.2659999999999999E-2</v>
+        <v>2.137E-2</v>
       </c>
       <c r="Q11">
-        <v>1.2999999999999999E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="R11">
-        <v>1.2999999999999999E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -1080,40 +1089,40 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.25927</v>
+        <v>0.23588999999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>0.25927</v>
+        <v>0.23588999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>0.26240999999999998</v>
+        <v>0.23832999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.26240999999999998</v>
+        <v>0.23832999999999999</v>
       </c>
       <c r="K12" s="1">
-        <v>9.7989999999999994E-2</v>
+        <v>0.15562999999999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.7989999999999994E-2</v>
+        <v>0.15562999999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>8.2790000000000002E-2</v>
+        <v>0.13471</v>
       </c>
       <c r="N12" s="1">
-        <v>8.2790000000000002E-2</v>
+        <v>0.13471</v>
       </c>
       <c r="O12">
-        <v>1.2659999999999999E-2</v>
+        <v>2.137E-2</v>
       </c>
       <c r="P12">
-        <v>1.2659999999999999E-2</v>
+        <v>2.137E-2</v>
       </c>
       <c r="Q12">
-        <v>1.2999999999999999E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="R12">
-        <v>1.2999999999999999E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -1133,40 +1142,40 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.24360000000000001</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>0.24360000000000001</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>0.24182000000000001</v>
+        <v>0.24202000000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.24182000000000001</v>
+        <v>0.24202000000000001</v>
       </c>
       <c r="K13" s="1">
-        <v>1.61E-2</v>
+        <v>1.4710000000000001E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>1.61E-2</v>
+        <v>1.4710000000000001E-2</v>
       </c>
       <c r="M13" s="1">
-        <v>1.3390000000000001E-2</v>
+        <v>1.256E-2</v>
       </c>
       <c r="N13" s="1">
-        <v>1.3390000000000001E-2</v>
+        <v>1.256E-2</v>
       </c>
       <c r="O13">
-        <v>5.1000000000000004E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="P13">
-        <v>5.1000000000000004E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="Q13">
-        <v>3.0000000000000001E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="R13">
-        <v>3.0000000000000001E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -1186,40 +1195,40 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.24359</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>0.24359</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>0.24182000000000001</v>
+        <v>0.24203</v>
       </c>
       <c r="J14" s="1">
-        <v>0.24182000000000001</v>
+        <v>0.24203</v>
       </c>
       <c r="K14" s="1">
-        <v>1.61E-2</v>
+        <v>1.4710000000000001E-2</v>
       </c>
       <c r="L14" s="1">
-        <v>1.61E-2</v>
+        <v>1.4710000000000001E-2</v>
       </c>
       <c r="M14" s="1">
-        <v>1.3390000000000001E-2</v>
+        <v>1.256E-2</v>
       </c>
       <c r="N14" s="1">
-        <v>1.3390000000000001E-2</v>
+        <v>1.256E-2</v>
       </c>
       <c r="O14">
-        <v>5.0000000000000001E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="P14">
-        <v>5.0000000000000001E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -1239,40 +1248,40 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>2.3230000000000001E-2</v>
+        <v>4.2439999999999999E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>2.3230000000000001E-2</v>
+        <v>4.2439999999999999E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>2.3179999999999999E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="J15" s="1">
-        <v>2.3179999999999999E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="K15" s="1">
-        <v>2.9149999999999999E-2</v>
+        <v>4.9259999999999998E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>2.9149999999999999E-2</v>
+        <v>4.9259999999999998E-2</v>
       </c>
       <c r="M15" s="1">
-        <v>1.7690000000000001E-2</v>
+        <v>3.0880000000000001E-2</v>
       </c>
       <c r="N15" s="1">
-        <v>1.7690000000000001E-2</v>
+        <v>3.0880000000000001E-2</v>
       </c>
       <c r="O15">
-        <v>0.44874000000000003</v>
+        <v>0.40146999999999999</v>
       </c>
       <c r="P15">
-        <v>0.44874000000000003</v>
+        <v>0.40146999999999999</v>
       </c>
       <c r="Q15">
-        <v>2.1440000000000001E-2</v>
+        <v>6.1710000000000001E-2</v>
       </c>
       <c r="R15">
-        <v>2.1440000000000001E-2</v>
+        <v>6.1710000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -1292,40 +1301,40 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>2.3230000000000001E-2</v>
+        <v>4.2439999999999999E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>2.3230000000000001E-2</v>
+        <v>4.2439999999999999E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>2.3179999999999999E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>2.3179999999999999E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>2.9149999999999999E-2</v>
+        <v>4.9259999999999998E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>2.9149999999999999E-2</v>
+        <v>4.9259999999999998E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>1.7690000000000001E-2</v>
+        <v>3.0880000000000001E-2</v>
       </c>
       <c r="N16" s="1">
-        <v>1.7690000000000001E-2</v>
+        <v>3.0880000000000001E-2</v>
       </c>
       <c r="O16">
-        <v>0.44863999999999998</v>
+        <v>0.40146999999999999</v>
       </c>
       <c r="P16">
-        <v>0.44863999999999998</v>
+        <v>0.40146999999999999</v>
       </c>
       <c r="Q16">
-        <v>2.2669999999999999E-2</v>
+        <v>6.1710000000000001E-2</v>
       </c>
       <c r="R16">
-        <v>2.2669999999999999E-2</v>
+        <v>6.1710000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
@@ -1369,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.418E-2</v>
+        <v>6.3740000000000005E-2</v>
       </c>
       <c r="P17">
-        <v>2.418E-2</v>
+        <v>6.3740000000000005E-2</v>
       </c>
       <c r="Q17">
-        <v>0.622</v>
+        <v>0.56181000000000003</v>
       </c>
       <c r="R17">
-        <v>0.622</v>
+        <v>0.56181000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
@@ -1422,16 +1431,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.3650000000000001E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="P18">
-        <v>2.3650000000000001E-2</v>
+        <v>5.8900000000000001E-2</v>
       </c>
       <c r="Q18">
-        <v>0.63275000000000003</v>
+        <v>0.60738000000000003</v>
       </c>
       <c r="R18">
-        <v>0.63275000000000003</v>
+        <v>0.60738000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1439,4 +1448,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF57AC2-3434-4FA3-9AC8-65ABD5F13BCE}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>-393.71</v>
+      </c>
+      <c r="D1">
+        <v>-154.09</v>
+      </c>
+      <c r="E1">
+        <v>-15.89</v>
+      </c>
+      <c r="F1">
+        <v>-15.89</v>
+      </c>
+      <c r="G1">
+        <v>-179.74</v>
+      </c>
+      <c r="H1">
+        <v>-179.74</v>
+      </c>
+      <c r="I1">
+        <v>-165.53</v>
+      </c>
+      <c r="J1">
+        <v>-165.53</v>
+      </c>
+      <c r="K1">
+        <v>-344.08</v>
+      </c>
+      <c r="L1">
+        <v>-344.08</v>
+      </c>
+      <c r="M1">
+        <v>-325.55</v>
+      </c>
+      <c r="N1">
+        <v>-325.55</v>
+      </c>
+      <c r="O1">
+        <v>-16.329999999999998</v>
+      </c>
+      <c r="P1">
+        <v>-16.329999999999998</v>
+      </c>
+      <c r="Q1">
+        <v>-3.77</v>
+      </c>
+      <c r="R1">
+        <v>-3.77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>12.24</v>
+      </c>
+      <c r="F2">
+        <v>-12.24</v>
+      </c>
+      <c r="G2">
+        <v>1803.4</v>
+      </c>
+      <c r="H2">
+        <v>-1803.4</v>
+      </c>
+      <c r="I2">
+        <v>1705.36</v>
+      </c>
+      <c r="J2">
+        <v>-1705.36</v>
+      </c>
+      <c r="K2">
+        <v>240.83</v>
+      </c>
+      <c r="L2">
+        <v>-240.83</v>
+      </c>
+      <c r="M2">
+        <v>226.63</v>
+      </c>
+      <c r="N2">
+        <v>-226.63</v>
+      </c>
+      <c r="O2">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="P2">
+        <v>-36.020000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>11.47</v>
+      </c>
+      <c r="R2">
+        <v>-11.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PCS_analysis.xlsx
+++ b/PCS_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\PCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E93E785-E0DD-4506-B829-4CAFE5D26FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B78D79-2971-47CF-A6A5-04889E6455A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="246">
   <si>
     <t>Real part</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,12 +106,722 @@
   <si>
     <t>Lg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_ocv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kii_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpv_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiv_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_dc_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vgD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vgQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpv_ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiv_ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi_ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kii_ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vd_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vq_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+0j</t>
+  </si>
+  <si>
+    <t>0+0.003i</t>
+  </si>
+  <si>
+    <t>0-0.003i</t>
+  </si>
+  <si>
+    <t>0-0.004i</t>
+  </si>
+  <si>
+    <t>0+0.004i</t>
+  </si>
+  <si>
+    <t>0.001-0.001i</t>
+  </si>
+  <si>
+    <t>0.001+0.001i</t>
+  </si>
+  <si>
+    <t>0.194+0.997i</t>
+  </si>
+  <si>
+    <t>0.194-0.997i</t>
+  </si>
+  <si>
+    <t>-0.194-5.669i</t>
+  </si>
+  <si>
+    <t>-0.194+5.669i</t>
+  </si>
+  <si>
+    <t>-0.194-0.997i</t>
+  </si>
+  <si>
+    <t>-0.194+0.997i</t>
+  </si>
+  <si>
+    <t>0.195+5.671i</t>
+  </si>
+  <si>
+    <t>0.195-5.671i</t>
+  </si>
+  <si>
+    <t>-175.563-87.706i</t>
+  </si>
+  <si>
+    <t>-175.563+87.706i</t>
+  </si>
+  <si>
+    <t>-159.266-82.258i</t>
+  </si>
+  <si>
+    <t>-159.266+82.258i</t>
+  </si>
+  <si>
+    <t>-348.861-414.314i</t>
+  </si>
+  <si>
+    <t>-348.861+414.314i</t>
+  </si>
+  <si>
+    <t>-316.296-419.769i</t>
+  </si>
+  <si>
+    <t>-316.296+419.769i</t>
+  </si>
+  <si>
+    <t>-0.013-0.007i</t>
+  </si>
+  <si>
+    <t>-0.013+0.007i</t>
+  </si>
+  <si>
+    <t>16.269+4.349i</t>
+  </si>
+  <si>
+    <t>16.269-4.349i</t>
+  </si>
+  <si>
+    <t>0.048-0.116i</t>
+  </si>
+  <si>
+    <t>0.048+0.116i</t>
+  </si>
+  <si>
+    <t>-0.434+0.248i</t>
+  </si>
+  <si>
+    <t>-0.434-0.248i</t>
+  </si>
+  <si>
+    <t>-0.018+0.054i</t>
+  </si>
+  <si>
+    <t>-0.018-0.054i</t>
+  </si>
+  <si>
+    <t>0.293-0.201i</t>
+  </si>
+  <si>
+    <t>0.293+0.201i</t>
+  </si>
+  <si>
+    <t>-16.546-21.105i</t>
+  </si>
+  <si>
+    <t>-16.546+21.105i</t>
+  </si>
+  <si>
+    <t>0.15+16.684i</t>
+  </si>
+  <si>
+    <t>0.15-16.684i</t>
+  </si>
+  <si>
+    <t>-0.439+0.152i</t>
+  </si>
+  <si>
+    <t>-0.439-0.152i</t>
+  </si>
+  <si>
+    <t>-0.444+0.134i</t>
+  </si>
+  <si>
+    <t>-0.444-0.134i</t>
+  </si>
+  <si>
+    <t>-0.464-0.353i</t>
+  </si>
+  <si>
+    <t>-0.464+0.353i</t>
+  </si>
+  <si>
+    <t>-0.076-0.346i</t>
+  </si>
+  <si>
+    <t>-0.076+0.346i</t>
+  </si>
+  <si>
+    <t>-8.969+0.103i</t>
+  </si>
+  <si>
+    <t>-8.969-0.103i</t>
+  </si>
+  <si>
+    <t>0.392-0.231i</t>
+  </si>
+  <si>
+    <t>0.392+0.231i</t>
+  </si>
+  <si>
+    <t>-16.875-76.576i</t>
+  </si>
+  <si>
+    <t>-16.875+76.576i</t>
+  </si>
+  <si>
+    <t>-14.596-76.866i</t>
+  </si>
+  <si>
+    <t>-14.596+76.866i</t>
+  </si>
+  <si>
+    <t>21.852+2.417i</t>
+  </si>
+  <si>
+    <t>21.852-2.417i</t>
+  </si>
+  <si>
+    <t>12.224+8.705i</t>
+  </si>
+  <si>
+    <t>12.224-8.705i</t>
+  </si>
+  <si>
+    <t>7.967+7.032i</t>
+  </si>
+  <si>
+    <t>7.967-7.032i</t>
+  </si>
+  <si>
+    <t>-0.583-5.504i</t>
+  </si>
+  <si>
+    <t>-0.583+5.504i</t>
+  </si>
+  <si>
+    <t>2.145-894.358i</t>
+  </si>
+  <si>
+    <t>2.145+894.358i</t>
+  </si>
+  <si>
+    <t>10.957-892.394i</t>
+  </si>
+  <si>
+    <t>10.957+892.394i</t>
+  </si>
+  <si>
+    <t>-6.494+10.064i</t>
+  </si>
+  <si>
+    <t>-6.494-10.064i</t>
+  </si>
+  <si>
+    <t>-6.609+8.107i</t>
+  </si>
+  <si>
+    <t>-6.609-8.107i</t>
+  </si>
+  <si>
+    <t>463.321-650.343i</t>
+  </si>
+  <si>
+    <t>463.321+650.343i</t>
+  </si>
+  <si>
+    <t>467.178-644.369i</t>
+  </si>
+  <si>
+    <t>467.178+644.369i</t>
+  </si>
+  <si>
+    <t>41.564-3.276i</t>
+  </si>
+  <si>
+    <t>41.564+3.276i</t>
+  </si>
+  <si>
+    <t>36.936-9.261i</t>
+  </si>
+  <si>
+    <t>36.936+9.261i</t>
+  </si>
+  <si>
+    <t>-0.007-0.011i</t>
+  </si>
+  <si>
+    <t>-0.007+0.011i</t>
+  </si>
+  <si>
+    <t>-4.143-2.283i</t>
+  </si>
+  <si>
+    <t>-4.143+2.283i</t>
+  </si>
+  <si>
+    <t>-4.088-2.349i</t>
+  </si>
+  <si>
+    <t>-4.088+2.349i</t>
+  </si>
+  <si>
+    <t>-0.989-0.492i</t>
+  </si>
+  <si>
+    <t>-0.989+0.492i</t>
+  </si>
+  <si>
+    <t>-0.791-0.423i</t>
+  </si>
+  <si>
+    <t>-0.791+0.423i</t>
+  </si>
+  <si>
+    <t>0.011+0.002i</t>
+  </si>
+  <si>
+    <t>0.011-0.002i</t>
+  </si>
+  <si>
+    <t>-0.001+0.001i</t>
+  </si>
+  <si>
+    <t>-0.001-0.001i</t>
+  </si>
+  <si>
+    <t>-0.194-0.998i</t>
+  </si>
+  <si>
+    <t>-0.194+0.998i</t>
+  </si>
+  <si>
+    <t>0.045-1.037i</t>
+  </si>
+  <si>
+    <t>0.045+1.037i</t>
+  </si>
+  <si>
+    <t>-5.044+2.336i</t>
+  </si>
+  <si>
+    <t>-5.044-2.336i</t>
+  </si>
+  <si>
+    <t>-16.792+74.188i</t>
+  </si>
+  <si>
+    <t>-16.792-74.188i</t>
+  </si>
+  <si>
+    <t>-18.289+73.677i</t>
+  </si>
+  <si>
+    <t>-18.289-73.677i</t>
+  </si>
+  <si>
+    <t>17.848-6.49i</t>
+  </si>
+  <si>
+    <t>17.848+6.49i</t>
+  </si>
+  <si>
+    <t>17.273-5.995i</t>
+  </si>
+  <si>
+    <t>17.273+5.995i</t>
+  </si>
+  <si>
+    <t>-0.04-0.017i</t>
+  </si>
+  <si>
+    <t>-0.04+0.017i</t>
+  </si>
+  <si>
+    <t>271.668+30.181i</t>
+  </si>
+  <si>
+    <t>271.668-30.181i</t>
+  </si>
+  <si>
+    <t>286.71+38.804i</t>
+  </si>
+  <si>
+    <t>286.71-38.804i</t>
+  </si>
+  <si>
+    <t>-279.96-85.952i</t>
+  </si>
+  <si>
+    <t>-279.96+85.952i</t>
+  </si>
+  <si>
+    <t>-277.241-88.501i</t>
+  </si>
+  <si>
+    <t>-277.241+88.501i</t>
+  </si>
+  <si>
+    <t>-1.181+6.224i</t>
+  </si>
+  <si>
+    <t>-1.181-6.224i</t>
+  </si>
+  <si>
+    <t>0.003-0.066i</t>
+  </si>
+  <si>
+    <t>0.003+0.066i</t>
+  </si>
+  <si>
+    <t>-9.692+26.496i</t>
+  </si>
+  <si>
+    <t>-9.692-26.496i</t>
+  </si>
+  <si>
+    <t>-9.813+25.51i</t>
+  </si>
+  <si>
+    <t>-9.813-25.51i</t>
+  </si>
+  <si>
+    <t>18.139+332.943i</t>
+  </si>
+  <si>
+    <t>18.139-332.943i</t>
+  </si>
+  <si>
+    <t>1.388+334.014i</t>
+  </si>
+  <si>
+    <t>1.388-334.014i</t>
+  </si>
+  <si>
+    <t>-0.021+0.084i</t>
+  </si>
+  <si>
+    <t>-0.021-0.084i</t>
+  </si>
+  <si>
+    <t>和同步环路参数强相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和线路阻抗参数强相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和电流电压环参数强相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和滤波器电感参数/电流电压环参数强相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和电压环参数强相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.011-0.003i</t>
+  </si>
+  <si>
+    <t>-0.011+0.003i</t>
+  </si>
+  <si>
+    <t>-0.013-0.004i</t>
+  </si>
+  <si>
+    <t>-0.013+0.004i</t>
+  </si>
+  <si>
+    <t>-0.012+0.055i</t>
+  </si>
+  <si>
+    <t>-0.012-0.055i</t>
+  </si>
+  <si>
+    <t>-0.012+0.053i</t>
+  </si>
+  <si>
+    <t>-0.012-0.053i</t>
+  </si>
+  <si>
+    <t>0.266+0.325i</t>
+  </si>
+  <si>
+    <t>0.266-0.325i</t>
+  </si>
+  <si>
+    <t>0.256+0.327i</t>
+  </si>
+  <si>
+    <t>0.256-0.327i</t>
+  </si>
+  <si>
+    <t>0.259-0.012i</t>
+  </si>
+  <si>
+    <t>0.259+0.012i</t>
+  </si>
+  <si>
+    <t>0.262-0.014i</t>
+  </si>
+  <si>
+    <t>0.262+0.014i</t>
+  </si>
+  <si>
+    <t>-0.011-0.097i</t>
+  </si>
+  <si>
+    <t>-0.011+0.097i</t>
+  </si>
+  <si>
+    <t>0.241-0.032i</t>
+  </si>
+  <si>
+    <t>0.241+0.032i</t>
+  </si>
+  <si>
+    <t>0.24-0.028i</t>
+  </si>
+  <si>
+    <t>0.24+0.028i</t>
+  </si>
+  <si>
+    <t>0.008+0.014i</t>
+  </si>
+  <si>
+    <t>0.008-0.014i</t>
+  </si>
+  <si>
+    <t>0.01+0.009i</t>
+  </si>
+  <si>
+    <t>0.01-0.009i</t>
+  </si>
+  <si>
+    <t>0.022-0.008i</t>
+  </si>
+  <si>
+    <t>0.022+0.008i</t>
+  </si>
+  <si>
+    <t>0.022-0.007i</t>
+  </si>
+  <si>
+    <t>0.022+0.007i</t>
+  </si>
+  <si>
+    <t>0.023+0.018i</t>
+  </si>
+  <si>
+    <t>0.023-0.018i</t>
+  </si>
+  <si>
+    <t>0.004+0.017i</t>
+  </si>
+  <si>
+    <t>0.004-0.017i</t>
+  </si>
+  <si>
+    <t>-0.15-0.025i</t>
+  </si>
+  <si>
+    <t>-0.15+0.025i</t>
+  </si>
+  <si>
+    <t>0.498-0.668i</t>
+  </si>
+  <si>
+    <t>0.498+0.668i</t>
+  </si>
+  <si>
+    <t>0.667+0.695i</t>
+  </si>
+  <si>
+    <t>0.667-0.695i</t>
+  </si>
+  <si>
+    <t>-0.015-0.003i</t>
+  </si>
+  <si>
+    <t>-0.015+0.003i</t>
+  </si>
+  <si>
+    <t>0.214-0.259i</t>
+  </si>
+  <si>
+    <t>0.214+0.259i</t>
+  </si>
+  <si>
+    <t>0.239-0.271i</t>
+  </si>
+  <si>
+    <t>0.239+0.271i</t>
+  </si>
+  <si>
+    <t>0.074-0.014i</t>
+  </si>
+  <si>
+    <t>0.074+0.014i</t>
+  </si>
+  <si>
+    <t>-0.003+0.002i</t>
+  </si>
+  <si>
+    <t>-0.003-0.002i</t>
+  </si>
+  <si>
+    <t>-0.009-0.082i</t>
+  </si>
+  <si>
+    <t>-0.009+0.082i</t>
+  </si>
+  <si>
+    <t>-0.001+0.013i</t>
+  </si>
+  <si>
+    <t>-0.001-0.013i</t>
+  </si>
+  <si>
+    <t>0.448-0.005i</t>
+  </si>
+  <si>
+    <t>0.448+0.005i</t>
+  </si>
+  <si>
+    <t>-0.02+0.012i</t>
+  </si>
+  <si>
+    <t>-0.02-0.012i</t>
+  </si>
+  <si>
+    <t>-0.024+0.004i</t>
+  </si>
+  <si>
+    <t>-0.024-0.004i</t>
+  </si>
+  <si>
+    <t>0.524+0.333i</t>
+  </si>
+  <si>
+    <t>0.524-0.333i</t>
+  </si>
+  <si>
+    <t>-0.022+0.009i</t>
+  </si>
+  <si>
+    <t>-0.022-0.009i</t>
+  </si>
+  <si>
+    <t>0.522-0.36i</t>
+  </si>
+  <si>
+    <t>0.522+0.36i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,7 +839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +849,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,12 +879,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EE11AD-4751-4957-A53D-660D2B6D5C19}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:R2"/>
@@ -506,40 +1264,40 @@
         <v>-15.89</v>
       </c>
       <c r="G1">
-        <v>-179.74</v>
+        <v>-194.74</v>
       </c>
       <c r="H1">
-        <v>-179.74</v>
+        <v>-194.74</v>
       </c>
       <c r="I1">
-        <v>-165.53</v>
+        <v>-178.49</v>
       </c>
       <c r="J1">
-        <v>-165.53</v>
+        <v>-178.49</v>
       </c>
       <c r="K1">
-        <v>-344.08</v>
+        <v>-323.7</v>
       </c>
       <c r="L1">
-        <v>-344.08</v>
+        <v>-323.7</v>
       </c>
       <c r="M1">
-        <v>-325.55</v>
+        <v>-314.45</v>
       </c>
       <c r="N1">
-        <v>-325.55</v>
+        <v>-314.45</v>
       </c>
       <c r="O1">
-        <v>-16.329999999999998</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="P1">
-        <v>-16.329999999999998</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="Q1">
-        <v>-3.77</v>
+        <v>-4.83</v>
       </c>
       <c r="R1">
-        <v>-3.77</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -559,40 +1317,40 @@
         <v>-12.24</v>
       </c>
       <c r="G2">
-        <v>1803.4</v>
+        <v>1728.27</v>
       </c>
       <c r="H2">
-        <v>-1803.4</v>
+        <v>-1728.27</v>
       </c>
       <c r="I2">
-        <v>1705.36</v>
+        <v>1630.07</v>
       </c>
       <c r="J2">
-        <v>-1705.36</v>
+        <v>-1630.07</v>
       </c>
       <c r="K2">
-        <v>240.83</v>
+        <v>244.05</v>
       </c>
       <c r="L2">
-        <v>-240.83</v>
+        <v>-244.05</v>
       </c>
       <c r="M2">
-        <v>226.63</v>
+        <v>235.28</v>
       </c>
       <c r="N2">
-        <v>-226.63</v>
+        <v>-235.28</v>
       </c>
       <c r="O2">
-        <v>36.020000000000003</v>
+        <v>42.06</v>
       </c>
       <c r="P2">
-        <v>-36.020000000000003</v>
+        <v>-42.06</v>
       </c>
       <c r="Q2">
-        <v>11.47</v>
+        <v>7.54</v>
       </c>
       <c r="R2">
-        <v>-11.47</v>
+        <v>-7.54</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -600,16 +1358,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.48121000000000003</v>
+        <v>-0.48121000000000003</v>
       </c>
       <c r="D3" s="1">
         <v>1.78068</v>
       </c>
       <c r="E3">
-        <v>0.15173</v>
+        <v>-0.14974000000000001</v>
       </c>
       <c r="F3">
-        <v>0.15173</v>
+        <v>-0.14974000000000001</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -653,16 +1411,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1.7000000000000001E-4</v>
+        <v>-1.7000000000000001E-4</v>
       </c>
       <c r="D4" s="1">
         <v>3.81E-3</v>
       </c>
       <c r="E4">
-        <v>0.83309</v>
+        <v>0.49818000000000001</v>
       </c>
       <c r="F4">
-        <v>0.83309</v>
+        <v>0.49818000000000001</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -709,13 +1467,13 @@
         <v>5.5230000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.38908999999999999</v>
+        <v>-0.38908999999999999</v>
       </c>
       <c r="E5">
-        <v>0.96309999999999996</v>
+        <v>0.66693000000000002</v>
       </c>
       <c r="F5">
-        <v>0.96309999999999996</v>
+        <v>0.66693000000000002</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -762,13 +1520,13 @@
         <v>1.42614</v>
       </c>
       <c r="D6" s="1">
-        <v>0.39539999999999997</v>
+        <v>-0.39539999999999997</v>
       </c>
       <c r="E6">
-        <v>1.559E-2</v>
+        <v>-1.537E-2</v>
       </c>
       <c r="F6">
-        <v>1.559E-2</v>
+        <v>-1.537E-2</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -824,40 +1582,40 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>9.6600000000000002E-3</v>
+        <v>-1.091E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>9.6600000000000002E-3</v>
+        <v>-1.091E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>1.1379999999999999E-2</v>
+        <v>-1.286E-2</v>
       </c>
       <c r="J7" s="1">
-        <v>1.1379999999999999E-2</v>
+        <v>-1.286E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>0.29782999999999998</v>
+        <v>0.21425</v>
       </c>
       <c r="L7" s="1">
-        <v>0.29782999999999998</v>
+        <v>0.21425</v>
       </c>
       <c r="M7" s="1">
-        <v>0.33334999999999998</v>
+        <v>0.23874999999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>0.33334999999999998</v>
+        <v>0.23874999999999999</v>
       </c>
       <c r="O7">
-        <v>0.13866000000000001</v>
+        <v>7.3929999999999996E-2</v>
       </c>
       <c r="P7">
-        <v>0.13866000000000001</v>
+        <v>7.3929999999999996E-2</v>
       </c>
       <c r="Q7">
-        <v>2.0080000000000001E-2</v>
+        <v>-3.16E-3</v>
       </c>
       <c r="R7">
-        <v>2.0080000000000001E-2</v>
+        <v>-3.16E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -877,40 +1635,40 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>9.6600000000000002E-3</v>
+        <v>-1.091E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>9.6600000000000002E-3</v>
+        <v>-1.091E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>1.1379999999999999E-2</v>
+        <v>-1.286E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>1.1379999999999999E-2</v>
+        <v>-1.286E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>0.29780000000000001</v>
+        <v>0.21425</v>
       </c>
       <c r="L8" s="1">
-        <v>0.29780000000000001</v>
+        <v>0.21425</v>
       </c>
       <c r="M8" s="1">
-        <v>0.33339000000000002</v>
+        <v>0.23874999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>0.33339000000000002</v>
+        <v>0.23874999999999999</v>
       </c>
       <c r="O8">
-        <v>0.13877999999999999</v>
+        <v>7.3959999999999998E-2</v>
       </c>
       <c r="P8">
-        <v>0.13877999999999999</v>
+        <v>7.3959999999999998E-2</v>
       </c>
       <c r="Q8">
-        <v>2.0119999999999999E-2</v>
+        <v>-3.1900000000000001E-3</v>
       </c>
       <c r="R8">
-        <v>2.0119999999999999E-2</v>
+        <v>-3.1900000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -930,40 +1688,40 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>4.9029999999999997E-2</v>
+        <v>-1.15E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>4.9029999999999997E-2</v>
+        <v>-1.15E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>4.7649999999999998E-2</v>
+        <v>-1.157E-2</v>
       </c>
       <c r="J9" s="1">
-        <v>4.7649999999999998E-2</v>
+        <v>-1.157E-2</v>
       </c>
       <c r="K9" s="1">
-        <v>0.43975999999999998</v>
+        <v>0.26584000000000002</v>
       </c>
       <c r="L9" s="1">
-        <v>0.43975999999999998</v>
+        <v>0.26584000000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>0.43029000000000001</v>
+        <v>0.25628000000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>0.43029000000000001</v>
+        <v>0.25628000000000001</v>
       </c>
       <c r="O9">
-        <v>1.5900000000000001E-3</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="P9">
-        <v>1.5900000000000001E-3</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="Q9">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -983,40 +1741,40 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4.9029999999999997E-2</v>
+        <v>-1.15E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>4.9029999999999997E-2</v>
+        <v>-1.15E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>4.7649999999999998E-2</v>
+        <v>-1.157E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>4.7649999999999998E-2</v>
+        <v>-1.157E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>0.43973000000000001</v>
+        <v>0.26580999999999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0.43973000000000001</v>
+        <v>0.26580999999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>0.43032999999999999</v>
+        <v>0.25630999999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>0.43032999999999999</v>
+        <v>0.25630999999999998</v>
       </c>
       <c r="O10">
-        <v>1.67E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="P10">
-        <v>1.67E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="Q10">
-        <v>1.2999999999999999E-4</v>
+        <v>-3.0000000000000001E-5</v>
       </c>
       <c r="R10">
-        <v>1.2999999999999999E-4</v>
+        <v>-3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -1036,40 +1794,40 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.23588999999999999</v>
+        <v>0.25901000000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>0.23588999999999999</v>
+        <v>0.25901000000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>0.23832999999999999</v>
+        <v>0.26201999999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.23832999999999999</v>
+        <v>0.26201999999999998</v>
       </c>
       <c r="K11" s="1">
-        <v>0.15562999999999999</v>
+        <v>-1.145E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>0.15562999999999999</v>
+        <v>-1.145E-2</v>
       </c>
       <c r="M11" s="1">
-        <v>0.13471</v>
+        <v>-8.8199999999999997E-3</v>
       </c>
       <c r="N11" s="1">
-        <v>0.13471</v>
+        <v>-8.8199999999999997E-3</v>
       </c>
       <c r="O11">
-        <v>2.137E-2</v>
+        <v>-7.6999999999999996E-4</v>
       </c>
       <c r="P11">
-        <v>2.137E-2</v>
+        <v>-7.6999999999999996E-4</v>
       </c>
       <c r="Q11">
-        <v>9.7000000000000005E-4</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>9.7000000000000005E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -1089,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.23588999999999999</v>
+        <v>0.25901000000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>0.23588999999999999</v>
+        <v>0.25901000000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>0.23832999999999999</v>
+        <v>0.26201999999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.23832999999999999</v>
+        <v>0.26201999999999998</v>
       </c>
       <c r="K12" s="1">
-        <v>0.15562999999999999</v>
+        <v>-1.145E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>0.15562999999999999</v>
+        <v>-1.145E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>0.13471</v>
+        <v>-8.8199999999999997E-3</v>
       </c>
       <c r="N12" s="1">
-        <v>0.13471</v>
+        <v>-8.8199999999999997E-3</v>
       </c>
       <c r="O12">
-        <v>2.137E-2</v>
+        <v>-7.6999999999999996E-4</v>
       </c>
       <c r="P12">
-        <v>2.137E-2</v>
+        <v>-7.6999999999999996E-4</v>
       </c>
       <c r="Q12">
-        <v>9.7000000000000005E-4</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>9.7000000000000005E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -1142,40 +1900,40 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.24374999999999999</v>
+        <v>0.24143999999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>0.24374999999999999</v>
+        <v>0.24143999999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>0.24202000000000001</v>
+        <v>0.24021000000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.24202000000000001</v>
+        <v>0.24021000000000001</v>
       </c>
       <c r="K13" s="1">
-        <v>1.4710000000000001E-2</v>
+        <v>8.1600000000000006E-3</v>
       </c>
       <c r="L13" s="1">
-        <v>1.4710000000000001E-2</v>
+        <v>8.1600000000000006E-3</v>
       </c>
       <c r="M13" s="1">
-        <v>1.256E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N13" s="1">
-        <v>1.256E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O13">
-        <v>8.3000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P13">
-        <v>8.3000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="Q13">
-        <v>4.0000000000000003E-5</v>
+        <v>-3.0000000000000001E-5</v>
       </c>
       <c r="R13">
-        <v>4.0000000000000003E-5</v>
+        <v>-3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -1195,40 +1953,40 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.24374999999999999</v>
+        <v>0.24143999999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>0.24374999999999999</v>
+        <v>0.24143999999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>0.24203</v>
+        <v>0.24021999999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.24203</v>
+        <v>0.24021999999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>1.4710000000000001E-2</v>
+        <v>8.1600000000000006E-3</v>
       </c>
       <c r="L14" s="1">
-        <v>1.4710000000000001E-2</v>
+        <v>8.1600000000000006E-3</v>
       </c>
       <c r="M14" s="1">
-        <v>1.256E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N14" s="1">
-        <v>1.256E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O14">
-        <v>7.9000000000000001E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="P14">
-        <v>7.9000000000000001E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="Q14">
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -1248,40 +2006,40 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>4.2439999999999999E-2</v>
+        <v>2.196E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>4.2439999999999999E-2</v>
+        <v>2.196E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>4.2299999999999997E-2</v>
+        <v>2.2190000000000001E-2</v>
       </c>
       <c r="J15" s="1">
-        <v>4.2299999999999997E-2</v>
+        <v>2.2190000000000001E-2</v>
       </c>
       <c r="K15" s="1">
-        <v>4.9259999999999998E-2</v>
+        <v>2.3210000000000001E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>4.9259999999999998E-2</v>
+        <v>2.3210000000000001E-2</v>
       </c>
       <c r="M15" s="1">
-        <v>3.0880000000000001E-2</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="N15" s="1">
-        <v>3.0880000000000001E-2</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="O15">
-        <v>0.40146999999999999</v>
+        <v>0.44846999999999998</v>
       </c>
       <c r="P15">
-        <v>0.40146999999999999</v>
+        <v>0.44846999999999998</v>
       </c>
       <c r="Q15">
-        <v>6.1710000000000001E-2</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="R15">
-        <v>6.1710000000000001E-2</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -1301,40 +2059,40 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>4.2439999999999999E-2</v>
+        <v>2.196E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>4.2439999999999999E-2</v>
+        <v>2.196E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>4.2299999999999997E-2</v>
+        <v>2.2190000000000001E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>4.2299999999999997E-2</v>
+        <v>2.2190000000000001E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>4.9259999999999998E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>4.9259999999999998E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>3.0880000000000001E-2</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="N16" s="1">
-        <v>3.0880000000000001E-2</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="O16">
-        <v>0.40146999999999999</v>
+        <v>0.44846999999999998</v>
       </c>
       <c r="P16">
-        <v>0.40146999999999999</v>
+        <v>0.44846999999999998</v>
       </c>
       <c r="Q16">
-        <v>6.1710000000000001E-2</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="R16">
-        <v>6.1710000000000001E-2</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
@@ -1378,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.3740000000000005E-2</v>
+        <v>-2.384E-2</v>
       </c>
       <c r="P17">
-        <v>6.3740000000000005E-2</v>
+        <v>-2.384E-2</v>
       </c>
       <c r="Q17">
-        <v>0.56181000000000003</v>
+        <v>0.52383999999999997</v>
       </c>
       <c r="R17">
-        <v>0.56181000000000003</v>
+        <v>0.52383999999999997</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
@@ -1431,16 +2189,816 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.8900000000000001E-2</v>
+        <v>-2.1780000000000001E-2</v>
       </c>
       <c r="P18">
-        <v>5.8900000000000001E-2</v>
+        <v>-2.1780000000000001E-2</v>
       </c>
       <c r="Q18">
-        <v>0.60738000000000003</v>
+        <v>0.52178000000000002</v>
       </c>
       <c r="R18">
-        <v>0.60738000000000003</v>
+        <v>0.52178000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="D21">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D23">
+        <v>-0.38900000000000001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="D24">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="E24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s">
+        <v>224</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>226</v>
+      </c>
+      <c r="P25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>228</v>
+      </c>
+      <c r="R25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="s">
+        <v>224</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>226</v>
+      </c>
+      <c r="P26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>228</v>
+      </c>
+      <c r="R26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N27" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27">
+        <v>1E-3</v>
+      </c>
+      <c r="P27">
+        <v>1E-3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s">
+        <v>189</v>
+      </c>
+      <c r="M28" t="s">
+        <v>190</v>
+      </c>
+      <c r="N28" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28">
+        <v>1E-3</v>
+      </c>
+      <c r="P28">
+        <v>1E-3</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>232</v>
+      </c>
+      <c r="P29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" t="s">
+        <v>230</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>232</v>
+      </c>
+      <c r="P30" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" t="s">
+        <v>202</v>
+      </c>
+      <c r="L31" t="s">
+        <v>203</v>
+      </c>
+      <c r="M31" t="s">
+        <v>204</v>
+      </c>
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" t="s">
+        <v>204</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" t="s">
+        <v>211</v>
+      </c>
+      <c r="M33" t="s">
+        <v>212</v>
+      </c>
+      <c r="N33" t="s">
+        <v>213</v>
+      </c>
+      <c r="O33" t="s">
+        <v>234</v>
+      </c>
+      <c r="P33" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>236</v>
+      </c>
+      <c r="R33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" t="s">
+        <v>211</v>
+      </c>
+      <c r="M34" t="s">
+        <v>212</v>
+      </c>
+      <c r="N34" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>236</v>
+      </c>
+      <c r="R34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" t="s">
+        <v>238</v>
+      </c>
+      <c r="P35" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>240</v>
+      </c>
+      <c r="R35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>244</v>
+      </c>
+      <c r="R36" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1452,132 +3010,1626 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF57AC2-3434-4FA3-9AC8-65ABD5F13BCE}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R2"/>
+      <selection activeCell="C3" sqref="C3:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="18" width="18.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>-393.71</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>-154.09</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="8">
         <v>-15.89</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="8">
         <v>-15.89</v>
       </c>
-      <c r="G1">
-        <v>-179.74</v>
-      </c>
-      <c r="H1">
-        <v>-179.74</v>
-      </c>
-      <c r="I1">
-        <v>-165.53</v>
-      </c>
-      <c r="J1">
-        <v>-165.53</v>
-      </c>
-      <c r="K1">
-        <v>-344.08</v>
-      </c>
-      <c r="L1">
-        <v>-344.08</v>
-      </c>
-      <c r="M1">
-        <v>-325.55</v>
-      </c>
-      <c r="N1">
-        <v>-325.55</v>
-      </c>
-      <c r="O1">
-        <v>-16.329999999999998</v>
-      </c>
-      <c r="P1">
-        <v>-16.329999999999998</v>
-      </c>
-      <c r="Q1">
-        <v>-3.77</v>
-      </c>
-      <c r="R1">
-        <v>-3.77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="G1" s="1">
+        <v>-194.74</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-194.74</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-178.49</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-178.49</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-323.7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-323.7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>-314.45</v>
+      </c>
+      <c r="N1" s="1">
+        <v>-314.45</v>
+      </c>
+      <c r="O1" s="8">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="P1" s="8">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>-4.83</v>
+      </c>
+      <c r="R1" s="8">
+        <v>-4.83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>12.24</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>-12.24</v>
       </c>
-      <c r="G2">
-        <v>1803.4</v>
-      </c>
-      <c r="H2">
-        <v>-1803.4</v>
-      </c>
-      <c r="I2">
-        <v>1705.36</v>
-      </c>
-      <c r="J2">
-        <v>-1705.36</v>
-      </c>
-      <c r="K2">
-        <v>240.83</v>
-      </c>
-      <c r="L2">
-        <v>-240.83</v>
-      </c>
-      <c r="M2">
-        <v>226.63</v>
-      </c>
-      <c r="N2">
-        <v>-226.63</v>
-      </c>
-      <c r="O2">
-        <v>36.020000000000003</v>
-      </c>
-      <c r="P2">
-        <v>-36.020000000000003</v>
-      </c>
-      <c r="Q2">
-        <v>11.47</v>
-      </c>
-      <c r="R2">
-        <v>-11.47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="G2" s="1">
+        <v>1728.27</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1728.27</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1630.07</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1630.07</v>
+      </c>
+      <c r="K2" s="1">
+        <v>244.05</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-244.05</v>
+      </c>
+      <c r="M2" s="1">
+        <v>235.28</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-235.28</v>
+      </c>
+      <c r="O2" s="8">
+        <v>42.06</v>
+      </c>
+      <c r="P2" s="8">
+        <v>-42.06</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>7.54</v>
+      </c>
+      <c r="R2" s="8">
+        <v>-7.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-48.289000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15.750999999999999</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10">
+        <v>701.37099999999998</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-122.46899999999999</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-141.797</v>
+      </c>
+      <c r="D6" s="4">
+        <v>63.087000000000003</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-821.57399999999996</v>
+      </c>
+      <c r="D8" s="10">
+        <v>321.60899999999998</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>261.483</v>
+      </c>
+      <c r="D9" s="12">
+        <v>-262.06900000000002</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11">
+        <v>48.284999999999997</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-15.193</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1.5329999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C29" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="R29" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>